--- a/Results/single results csv/BMI/BMIResults.xlsx
+++ b/Results/single results csv/BMI/BMIResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicaventriglia/Documents/Universita/TESI/EspressoTests/EspressoTests/Results/single results csv/BMI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78750B89-503B-FF44-900B-BBCBBD279CD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8FCED4-6952-6642-8675-D9B7C7A56C3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="980" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{84A37660-7571-5B4D-B6C1-D4F031ED1744}"/>
   </bookViews>
@@ -33,35 +33,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="153">
-  <si>
-    <t>0.490s</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="132">
   <si>
     <t>com.zola.bmi.C6.UITextAssertC6</t>
   </si>
   <si>
-    <t>0.510s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C6.UIExistsC6</t>
   </si>
   <si>
-    <t>0.624s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C6.UIAssertC6</t>
   </si>
   <si>
-    <t>0.905s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C6.ScoreAssertTextC6</t>
   </si>
   <si>
-    <t>2.052s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C6.MixedMetricsC6</t>
   </si>
   <si>
@@ -71,249 +56,129 @@
     <t>com.zola.bmi.C6.InputDataC6</t>
   </si>
   <si>
-    <t>3.166s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C6.ChangeMetricsInputC6</t>
   </si>
   <si>
-    <t>0.798s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C5.UITextAssertC5</t>
   </si>
   <si>
-    <t>0.741s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C5.UIExistC5</t>
   </si>
   <si>
-    <t>0.636s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C5.UIAssertC5</t>
   </si>
   <si>
-    <t>0.988s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C5.ScoreAssertC5</t>
   </si>
   <si>
-    <t>2.743s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C5.MixedMetricsC5</t>
   </si>
   <si>
-    <t>1.010s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C5.InputDataC5</t>
   </si>
   <si>
-    <t>3.469s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C5.ChangeMetricsInputC5</t>
   </si>
   <si>
-    <t>0.537s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C4.UITextAssertC4</t>
   </si>
   <si>
-    <t>0.698s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C4.UIExistsTestC4</t>
   </si>
   <si>
-    <t>0.922s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C4.ScoreAssertionTextC4</t>
   </si>
   <si>
-    <t>0.982s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C4.ScoreAssertionC4</t>
   </si>
   <si>
-    <t>3.472s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C4.MixedMetricsC4</t>
   </si>
   <si>
-    <t>1.749s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C4.InputDataTestC4</t>
   </si>
   <si>
-    <t>3.182s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C4.ChangeMetricInputC4</t>
   </si>
   <si>
-    <t>0.622s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C3.UITextAssertC3</t>
   </si>
   <si>
-    <t>0.640s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C3.UIExistsC3</t>
   </si>
   <si>
     <t>com.zola.bmi.C3.UIAssertC3</t>
   </si>
   <si>
-    <t>0.923s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C3.ScoreAssertC3</t>
   </si>
   <si>
-    <t>2.629s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C3.MixedMetricsC3</t>
   </si>
   <si>
-    <t>0.842s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C3.InputDataC3</t>
   </si>
   <si>
-    <t>3.354s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C3.ChangeMetricsInputC3</t>
   </si>
   <si>
-    <t>1.115s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C2.UITextAssertC2</t>
   </si>
   <si>
     <t>com.zola.bmi.C2.UIExistsC2</t>
   </si>
   <si>
-    <t>0.492s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C2.UIAssertC2</t>
   </si>
   <si>
-    <t>0.983s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C2.ScoreAssertTextC2</t>
   </si>
   <si>
-    <t>2.060s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C2.MixedMetricsC2</t>
   </si>
   <si>
-    <t>0.941s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C2.InputDataC2</t>
   </si>
   <si>
-    <t>3.134s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C2.ChangeMetricsInputC2</t>
   </si>
   <si>
-    <t>0.570s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C1.UITextAssertC1</t>
   </si>
   <si>
-    <t>8.751s</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
-    <t>0.668s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C1.UIExistsTestC1</t>
   </si>
   <si>
-    <t>10.385s</t>
-  </si>
-  <si>
     <t>C5</t>
   </si>
   <si>
-    <t>1.014s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C1.ScoreAssertionTextC1</t>
   </si>
   <si>
-    <t>11.542s</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
-    <t>1.037s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C1.ScoreAssertionC1</t>
   </si>
   <si>
-    <t>9.634s</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
-    <t>3.406s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C1.MixedMetricsC1</t>
   </si>
   <si>
-    <t>9.235s</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
-    <t>1.771s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C1.InputDataTestC1</t>
   </si>
   <si>
-    <t>11.768s</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
-    <t>3.302s</t>
-  </si>
-  <si>
     <t>com.zola.bmi.C1.ChangeMetricInputC1</t>
   </si>
   <si>
@@ -492,6 +357,78 @@
   </si>
   <si>
     <t>ContentDescription FALSE</t>
+  </si>
+  <si>
+    <t>com.zola.bmi.C1.ChangeScoreC1</t>
+  </si>
+  <si>
+    <t>com.zola.bmi.C1.MixedScoreC1</t>
+  </si>
+  <si>
+    <t>com.zola.bmi.C1.ScoreCalcC1</t>
+  </si>
+  <si>
+    <t>com.zola.bmi.C2.ChangeScoreC2</t>
+  </si>
+  <si>
+    <t>com.zola.bmi.C2.MixedScoreC2</t>
+  </si>
+  <si>
+    <t>com.zola.bmi.C2.ScoreCalcC2</t>
+  </si>
+  <si>
+    <t>com.zola.bmi.C3.ChangeScoreC3</t>
+  </si>
+  <si>
+    <t>com.zola.bmi.C3.MixedScoreC3</t>
+  </si>
+  <si>
+    <t>com.zola.bmi.C3.ScoreCalcC3</t>
+  </si>
+  <si>
+    <t>com.zola.bmi.C4.ChangeScoreC4</t>
+  </si>
+  <si>
+    <t>com.zola.bmi.C4.MixedScoreC4</t>
+  </si>
+  <si>
+    <t>com.zola.bmi.C4.ScoreCalcC4</t>
+  </si>
+  <si>
+    <t>com.zola.bmi.C5.ChangeScoreC5</t>
+  </si>
+  <si>
+    <t>com.zola.bmi.C5.MixedScoreC5</t>
+  </si>
+  <si>
+    <t>com.zola.bmi.C5.ScoreCalcC5</t>
+  </si>
+  <si>
+    <t>com.zola.bmi.C6.ChangeScoreC6</t>
+  </si>
+  <si>
+    <t>com.zola.bmi.C6.MixedScoreC6</t>
+  </si>
+  <si>
+    <t>com.zola.bmi.C6.ScoreCalcC6</t>
+  </si>
+  <si>
+    <t>44.491s</t>
+  </si>
+  <si>
+    <t>38.124s</t>
+  </si>
+  <si>
+    <t>37.373s</t>
+  </si>
+  <si>
+    <t>42.076s</t>
+  </si>
+  <si>
+    <t>39.627s</t>
+  </si>
+  <si>
+    <t>27.426s</t>
   </si>
 </sst>
 </file>
@@ -519,13 +456,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="13"/>
-      <color theme="10"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -561,8 +491,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF008000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,8 +517,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -595,15 +537,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -626,15 +559,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -677,36 +601,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -742,7 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -756,133 +656,51 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1031,32 +849,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>BMICalc!$G$2:$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>C1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>C2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>C4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>C5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>C6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>BMICalc!$H$2:$H$7</c:f>
@@ -1064,22 +856,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,17 +885,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BMICalc!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Failures</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -1114,32 +895,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>BMICalc!$G$2:$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>C1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>C2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>C4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>C5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>C6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>BMICalc!$I$2:$I$7</c:f>
@@ -1147,22 +902,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1979,10 +1734,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3221,10 +2976,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3530,10 +3285,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8678,233 +8433,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20">
-      <c r="A1" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>94</v>
+      <c r="A1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20">
-      <c r="A2" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="24">
+      <c r="A2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="24" t="b">
+      <c r="C2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="17">
         <f>COUNTIF(B2:B43,B2)</f>
         <v>22</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="18">
         <f>COUNTIF(B2:B43,B8)</f>
         <v>20</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="24">
+      <c r="H2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="12">
         <v>7</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="12">
         <v>4</v>
       </c>
-      <c r="K2" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="25">
+      <c r="K2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="13">
         <v>0.42</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20">
-      <c r="A3" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="24">
+      <c r="A3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="12">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="24" t="b">
+      <c r="C3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="24">
+      <c r="H3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="12">
         <v>7</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="12">
         <v>2</v>
       </c>
-      <c r="K3" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" s="25">
+      <c r="K3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="13">
         <v>0.71</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20">
-      <c r="A4" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="24">
+      <c r="A4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="12">
         <v>0</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="24" t="b">
+      <c r="C4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="24">
+      <c r="H4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="12">
         <v>7</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="12">
         <v>4</v>
       </c>
-      <c r="K4" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4" s="25">
+      <c r="K4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="13">
         <v>0.42</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="20">
-      <c r="A5" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="24">
+      <c r="A5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="24" t="b">
+      <c r="C5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="24">
+      <c r="H5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="12">
         <v>7</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="12">
         <v>4</v>
       </c>
-      <c r="K5" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="L5" s="25">
+      <c r="K5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="13">
         <v>0.42</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="20">
-      <c r="A6" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="24">
+      <c r="A6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="24" t="b">
+      <c r="C6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="24">
+      <c r="H6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="12">
         <v>7</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="12">
         <v>4</v>
       </c>
-      <c r="K6" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="L6" s="25">
+      <c r="K6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="13">
         <v>0.42</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="20">
-      <c r="A7" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="24">
+      <c r="A7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="12">
         <v>1</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="24" t="b">
+      <c r="C7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="24">
+      <c r="H7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="12">
         <v>7</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="12">
         <v>2</v>
       </c>
-      <c r="K7" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="25">
+      <c r="K7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="13">
         <v>0.71</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20">
-      <c r="A8" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="24">
+      <c r="A8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="12">
         <v>1</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="24" t="b">
+      <c r="C8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="12" t="b">
         <v>1</v>
       </c>
       <c r="I8">
@@ -8913,540 +8668,540 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="20">
-      <c r="A9" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="24">
+      <c r="A9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="12">
         <v>0</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="24" t="b">
+      <c r="C9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="20">
-      <c r="A10" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="24">
+      <c r="A10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="12">
         <v>0</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="24" t="b">
+      <c r="C10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="31" t="s">
-        <v>151</v>
+      <c r="E10" s="19" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="20">
-      <c r="A11" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="24">
+      <c r="A11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="12">
         <v>0</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="24" t="b">
+      <c r="C11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>149</v>
+      <c r="E11" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="20">
-      <c r="A12" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="24">
+      <c r="A12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="12">
         <v>1</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="24" t="b">
+      <c r="C12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="17">
         <f>COUNTIF(B2:B22,B4)</f>
         <v>11</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="18">
         <f>COUNTIF(B2:B22,B7)</f>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="20">
-      <c r="A13" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="24">
+      <c r="A13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="12">
         <v>1</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="24" t="b">
+      <c r="C13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="20">
-      <c r="A14" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="24">
+      <c r="A14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="12">
         <v>0</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="24" t="b">
+      <c r="C14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="20">
-      <c r="A15" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="24">
+      <c r="A15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="12">
         <v>0</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="24" t="b">
+      <c r="C15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>152</v>
+      <c r="E15" s="19" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="20">
-      <c r="A16" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="24">
+      <c r="A16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="12">
         <v>0</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="24" t="b">
+      <c r="C16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>149</v>
+      <c r="E16" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20">
-      <c r="A17" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="24">
+      <c r="A17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="12">
         <v>0</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="24" t="b">
+      <c r="C17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="17">
         <f>COUNTIF(B23:B43,B23)</f>
         <v>11</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="18">
         <f>COUNTIF(B23:B43,B27)</f>
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20">
-      <c r="A18" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="24">
+      <c r="A18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="12">
         <v>0</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="24" t="b">
+      <c r="C18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20">
-      <c r="A19" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="24">
+      <c r="A19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="12">
         <v>1</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="24" t="b">
+      <c r="C19" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20">
-      <c r="A20" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="24">
+      <c r="A20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="12">
         <v>1</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="24" t="b">
+      <c r="C20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20">
-      <c r="A21" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="24">
+      <c r="A21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="12">
         <v>1</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="24" t="b">
+      <c r="C21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20">
-      <c r="A22" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="24">
+      <c r="A22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12">
         <v>1</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="24" t="b">
+      <c r="C22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20">
-      <c r="A23" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="24">
+      <c r="A23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12">
         <v>0</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="24" t="b">
+      <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20">
-      <c r="A24" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="24">
+      <c r="A24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="12">
         <v>0</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="24" t="b">
+      <c r="C24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20">
-      <c r="A25" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="24">
+      <c r="A25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="12">
         <v>0</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="24" t="b">
+      <c r="C25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20">
-      <c r="A26" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="24">
+      <c r="A26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="12">
         <v>1</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="24" t="b">
+      <c r="C26" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20">
-      <c r="A27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="24">
+      <c r="A27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="24" t="b">
+      <c r="C27" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20">
-      <c r="A28" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="24">
+      <c r="A28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="12">
         <v>1</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="24" t="b">
+      <c r="C28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20">
-      <c r="A29" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="24">
+      <c r="A29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="12">
         <v>1</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="24" t="b">
+      <c r="C29" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20">
-      <c r="A30" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="24">
+      <c r="A30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="12">
         <v>0</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="24" t="b">
+      <c r="C30" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20">
-      <c r="A31" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="24">
+      <c r="A31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="12">
         <v>0</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="24" t="b">
+      <c r="C31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20">
-      <c r="A32" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="24">
+      <c r="A32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="12">
         <v>0</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="24" t="b">
+      <c r="C32" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20">
-      <c r="A33" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="24">
+      <c r="A33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="12">
         <v>1</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" s="24" t="b">
+      <c r="C33" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20">
-      <c r="A34" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="24">
+      <c r="A34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="12">
         <v>1</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" s="24" t="b">
+      <c r="C34" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20">
-      <c r="A35" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="24">
+      <c r="A35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="12">
         <v>1</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" s="24" t="b">
+      <c r="C35" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20">
-      <c r="A36" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="24">
+      <c r="A36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="12">
         <v>1</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="24" t="b">
+      <c r="C36" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20">
-      <c r="A37" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="24">
+      <c r="A37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="12">
         <v>0</v>
       </c>
-      <c r="C37" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="24" t="b">
+      <c r="C37" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20">
-      <c r="A38" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="24">
+      <c r="A38" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="12">
         <v>0</v>
       </c>
-      <c r="C38" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="24" t="b">
+      <c r="C38" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20">
-      <c r="A39" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="24">
+      <c r="A39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="12">
         <v>0</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="24" t="b">
+      <c r="C39" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20">
-      <c r="A40" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="24">
+      <c r="A40" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="12">
         <v>1</v>
       </c>
-      <c r="C40" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" s="24" t="b">
+      <c r="C40" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20">
-      <c r="A41" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="24">
+      <c r="A41" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="12">
         <v>1</v>
       </c>
-      <c r="C41" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" s="24" t="b">
+      <c r="C41" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20">
-      <c r="A42" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="24">
+      <c r="A42" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="12">
         <v>0</v>
       </c>
-      <c r="C42" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="24" t="b">
+      <c r="C42" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20">
-      <c r="A43" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="24">
+      <c r="A43" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="24" t="b">
+      <c r="B43" s="12">
+        <v>0</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="12" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>$B$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B43">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>$B$35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9500,470 +9255,422 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32A3EA0-C32D-AB4D-AD4F-671C35E1BADA}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="E15" sqref="E1:F15"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="46" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.83203125" customWidth="1"/>
-    <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>94</v>
-      </c>
+    <row r="1" spans="1:11" ht="38" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="9"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="3"/>
+      <c r="F1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="18">
-      <c r="A2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="2" spans="1:11" ht="20">
+      <c r="A2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2" s="20">
         <v>1</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="14">
+      <c r="D2" s="5"/>
+      <c r="E2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="12">
+        <v>10</v>
+      </c>
+      <c r="I2" s="12">
         <v>7</v>
       </c>
-      <c r="I2" s="14">
-        <v>4</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>90</v>
+      <c r="J2" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="K2" s="13">
-        <v>0.42</v>
-      </c>
-      <c r="L2" s="3"/>
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="18">
-      <c r="A3" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="8">
+    <row r="3" spans="1:11" ht="20">
+      <c r="A3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5"/>
+      <c r="E3" s="3">
+        <f>COUNTIF(B2:B61,B2)</f>
+        <v>26</v>
+      </c>
+      <c r="F3" s="3">
+        <f>COUNTIF(B2:B61,B3)</f>
+        <v>34</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="12">
+        <v>10</v>
+      </c>
+      <c r="I3" s="12">
+        <v>3</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20">
+      <c r="A4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
-        <f>COUNTIF(B1:B42,B4)</f>
-        <v>21</v>
-      </c>
-      <c r="F3" s="3">
-        <f>COUNTIF(B2:B43,B5)</f>
-        <v>20</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="14">
-        <v>7</v>
-      </c>
-      <c r="I3" s="14">
-        <v>2</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="13">
-        <v>0.71</v>
-      </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="18">
-      <c r="A4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="14">
+      <c r="G4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="12">
+        <v>10</v>
+      </c>
+      <c r="I4" s="12">
         <v>7</v>
       </c>
-      <c r="I4" s="14">
-        <v>4</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>82</v>
+      <c r="J4" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="K4" s="13">
-        <v>0.42</v>
-      </c>
-      <c r="L4" s="3"/>
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="18">
-      <c r="A5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="8">
+    <row r="5" spans="1:11" ht="20">
+      <c r="A5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="14">
+      <c r="G5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="12">
+        <v>10</v>
+      </c>
+      <c r="I5" s="12">
         <v>7</v>
       </c>
-      <c r="I5" s="14">
-        <v>4</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>78</v>
+      <c r="J5" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="K5" s="13">
-        <v>0.42</v>
-      </c>
-      <c r="L5" s="3"/>
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="18">
-      <c r="A6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="8">
+    <row r="6" spans="1:11" ht="20">
+      <c r="A6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="13">
         <v>0</v>
       </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="14">
-        <v>7</v>
-      </c>
-      <c r="I6" s="14">
-        <v>4</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>74</v>
+      <c r="G6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="12">
+        <v>10</v>
+      </c>
+      <c r="I6" s="12">
+        <v>8</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="K6" s="13">
-        <v>0.42</v>
-      </c>
-      <c r="L6" s="3"/>
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="18">
-      <c r="A7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="8">
+    <row r="7" spans="1:11" ht="20">
+      <c r="A7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="12">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7" s="13">
         <v>0</v>
       </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="11">
-        <v>7</v>
-      </c>
-      <c r="I7" s="11">
-        <v>2</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0.71</v>
-      </c>
-      <c r="L7" s="3"/>
+      <c r="G7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="12">
+        <v>10</v>
+      </c>
+      <c r="I7" s="12">
+        <v>3</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" ht="18">
-      <c r="A8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="8">
+    <row r="8" spans="1:11" ht="20">
+      <c r="A8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="12">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="13">
         <v>0</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>151</v>
+      <c r="D8" s="5"/>
+      <c r="E8" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8">
+      <c r="H8" s="21">
         <f>SUM(H2:H7)</f>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="18">
-      <c r="A9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="8">
+    <row r="9" spans="1:11" ht="20">
+      <c r="A9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>149</v>
+      <c r="D9" s="5"/>
+      <c r="E9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="18">
-      <c r="A10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="8">
+    <row r="10" spans="1:11" ht="20">
+      <c r="A10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="29">
-        <f>COUNTIF(B2:B22,B2)</f>
-        <v>11</v>
-      </c>
-      <c r="F10" s="30">
-        <f>COUNTIF(B2:B22,B5)</f>
-        <v>10</v>
+      <c r="D10" s="5"/>
+      <c r="E10" s="17">
+        <f>COUNTIF(B2:B31,B5)</f>
+        <v>13</v>
+      </c>
+      <c r="F10" s="18">
+        <f>COUNTIF(B2:B31,B3)</f>
+        <v>17</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="18">
-      <c r="A11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="8">
+    <row r="11" spans="1:11" ht="20">
+      <c r="A11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="18">
-      <c r="A12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="8">
+    <row r="12" spans="1:11" ht="20">
+      <c r="A12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="20">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
+      <c r="D12" s="5"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="18">
-      <c r="A13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="8">
+    <row r="13" spans="1:11" ht="20">
+      <c r="A13" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="20">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>152</v>
+      <c r="D13" s="5"/>
+      <c r="E13" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="18">
-      <c r="A14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="8">
+    <row r="14" spans="1:11" ht="20">
+      <c r="A14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="12">
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C14" s="20">
         <v>1</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>149</v>
+      <c r="D14" s="5"/>
+      <c r="E14" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="18">
-      <c r="A15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="8">
+    <row r="15" spans="1:11" ht="20">
+      <c r="A15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="12">
         <v>0</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="C15" s="20">
         <v>1</v>
       </c>
-      <c r="E15" s="29">
-        <f>COUNTIF(B23:B43,B23)</f>
-        <v>11</v>
-      </c>
-      <c r="F15" s="30">
-        <f>COUNTIF(B23:B43,B26)</f>
-        <v>10</v>
+      <c r="D15" s="5"/>
+      <c r="E15" s="17">
+        <f>COUNTIF(B32:B61,B32)</f>
+        <v>13</v>
+      </c>
+      <c r="F15" s="18">
+        <f>COUNTIF(B32:B61,B37)</f>
+        <v>17</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="18">
-      <c r="A16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="8">
+    <row r="16" spans="1:11" ht="20">
+      <c r="A16" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="12">
         <v>0</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C16" s="20">
         <v>1</v>
       </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -9971,21 +9678,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" ht="18">
-      <c r="A17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="8">
+    <row r="17" spans="1:11" ht="20">
+      <c r="A17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
         <v>0</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -9993,21 +9697,18 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" ht="18">
-      <c r="A18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="8">
+    <row r="18" spans="1:11" ht="20">
+      <c r="A18" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
         <v>0</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -10015,21 +9716,18 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="18">
-      <c r="A19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="8">
+    <row r="19" spans="1:11" ht="20">
+      <c r="A19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="12">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="C19" s="13">
         <v>0</v>
       </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -10037,21 +9735,18 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="18">
-      <c r="A20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="8">
+    <row r="20" spans="1:11" ht="20">
+      <c r="A20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="20">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -10059,21 +9754,18 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="18">
-      <c r="A21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="8">
+    <row r="21" spans="1:11" ht="20">
+      <c r="A21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="20">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -10081,21 +9773,18 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="18">
-      <c r="A22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="8">
+    <row r="22" spans="1:11" ht="20">
+      <c r="A22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="20">
         <v>1</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -10103,21 +9792,18 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="18">
-      <c r="A23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="8">
+    <row r="23" spans="1:11" ht="20">
+      <c r="A23" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="12">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13">
         <v>0</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -10125,21 +9811,18 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="18">
-      <c r="A24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="8">
+    <row r="24" spans="1:11" ht="20">
+      <c r="A24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="12">
         <v>0</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="C24" s="20">
         <v>1</v>
       </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -10147,21 +9830,18 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="18">
-      <c r="A25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="8">
+    <row r="25" spans="1:11" ht="20">
+      <c r="A25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="12">
         <v>0</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="C25" s="20">
         <v>1</v>
       </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -10169,21 +9849,18 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="18">
-      <c r="A26" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="8">
+    <row r="26" spans="1:11" ht="20">
+      <c r="A26" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="12">
         <v>1</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="C26" s="13">
         <v>0</v>
       </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -10191,21 +9868,18 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="18">
-      <c r="A27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="8">
+    <row r="27" spans="1:11" ht="20">
+      <c r="A27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="C27" s="13">
         <v>0</v>
       </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -10213,21 +9887,18 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="18">
-      <c r="A28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="8">
+    <row r="28" spans="1:11" ht="20">
+      <c r="A28" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="12">
         <v>1</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="C28" s="13">
         <v>0</v>
       </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -10235,21 +9906,18 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="18">
-      <c r="A29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="8">
+    <row r="29" spans="1:11" ht="20">
+      <c r="A29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="12">
         <v>1</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="C29" s="13">
         <v>0</v>
       </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -10257,21 +9925,18 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="18">
-      <c r="A30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="8">
+    <row r="30" spans="1:11" ht="20">
+      <c r="A30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="12">
+        <v>1</v>
+      </c>
+      <c r="C30" s="13">
         <v>0</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -10279,21 +9944,18 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="18">
-      <c r="A31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="8">
+    <row r="31" spans="1:11" ht="20">
+      <c r="A31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="12">
+        <v>1</v>
+      </c>
+      <c r="C31" s="13">
         <v>0</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -10301,21 +9963,18 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="18">
-      <c r="A32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="8">
+    <row r="32" spans="1:11" ht="20">
+      <c r="A32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="12">
         <v>0</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="C32" s="20">
         <v>1</v>
       </c>
+      <c r="D32" s="5"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -10323,21 +9982,18 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" ht="18">
-      <c r="A33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="8">
+    <row r="33" spans="1:11" ht="20">
+      <c r="A33" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="12">
         <v>1</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="C33" s="13">
         <v>0</v>
       </c>
+      <c r="D33" s="5"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -10345,21 +10001,18 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="18">
-      <c r="A34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="8">
+    <row r="34" spans="1:11" ht="20">
+      <c r="A34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="12">
+        <v>0</v>
+      </c>
+      <c r="C34" s="20">
         <v>1</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="7">
-        <v>0</v>
-      </c>
+      <c r="D34" s="5"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -10367,21 +10020,18 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="18">
-      <c r="A35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="8">
+    <row r="35" spans="1:11" ht="20">
+      <c r="A35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="12">
+        <v>0</v>
+      </c>
+      <c r="C35" s="20">
         <v>1</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0</v>
-      </c>
+      <c r="D35" s="5"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -10389,21 +10039,18 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" ht="18">
-      <c r="A36" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="8">
+    <row r="36" spans="1:11" ht="20">
+      <c r="A36" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="12">
         <v>1</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="C36" s="13">
         <v>0</v>
       </c>
+      <c r="D36" s="5"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -10411,21 +10058,18 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" ht="18">
-      <c r="A37" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="8">
+    <row r="37" spans="1:11" ht="20">
+      <c r="A37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="12">
+        <v>1</v>
+      </c>
+      <c r="C37" s="13">
         <v>0</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
+      <c r="D37" s="5"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -10433,21 +10077,18 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" ht="18">
-      <c r="A38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="8">
+    <row r="38" spans="1:11" ht="20">
+      <c r="A38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="12">
+        <v>1</v>
+      </c>
+      <c r="C38" s="13">
         <v>0</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1</v>
-      </c>
+      <c r="D38" s="5"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -10455,21 +10096,18 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" ht="18">
-      <c r="A39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="8">
+    <row r="39" spans="1:11" ht="20">
+      <c r="A39" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="12">
+        <v>1</v>
+      </c>
+      <c r="C39" s="13">
         <v>0</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1</v>
-      </c>
+      <c r="D39" s="5"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -10477,21 +10115,18 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" ht="18">
-      <c r="A40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="8">
+    <row r="40" spans="1:11" ht="20">
+      <c r="A40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="12">
         <v>1</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="C40" s="13">
         <v>0</v>
       </c>
+      <c r="D40" s="5"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -10499,21 +10134,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" ht="18">
-      <c r="A41" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="8">
+    <row r="41" spans="1:11" ht="20">
+      <c r="A41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="12">
         <v>1</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="7">
+      <c r="C41" s="13">
         <v>0</v>
       </c>
+      <c r="D41" s="5"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -10521,21 +10153,18 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" ht="18">
-      <c r="A42" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="8">
+    <row r="42" spans="1:11" ht="20">
+      <c r="A42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="12">
         <v>0</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="7">
+      <c r="C42" s="20">
         <v>1</v>
       </c>
+      <c r="D42" s="5"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -10543,21 +10172,18 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" ht="18">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:11" ht="20">
+      <c r="A43" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="12">
         <v>1</v>
       </c>
-      <c r="B43" s="5">
+      <c r="C43" s="13">
         <v>0</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1</v>
-      </c>
+      <c r="D43" s="4"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -10565,12 +10191,17 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" ht="17">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+    <row r="44" spans="1:11" ht="20">
+      <c r="A44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="12">
+        <v>0</v>
+      </c>
+      <c r="C44" s="20">
+        <v>1</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -10579,12 +10210,17 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" ht="17">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+    <row r="45" spans="1:11" ht="20">
+      <c r="A45" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="12">
+        <v>0</v>
+      </c>
+      <c r="C45" s="20">
+        <v>1</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -10593,71 +10229,245 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" ht="20">
+      <c r="A46" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="12">
+        <v>1</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="20">
+      <c r="A47" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="12">
+        <v>1</v>
+      </c>
+      <c r="C47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="20">
+      <c r="A48" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="12">
+        <v>1</v>
+      </c>
+      <c r="C48" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="20">
+      <c r="A49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="12">
+        <v>1</v>
+      </c>
+      <c r="C49" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="20">
+      <c r="A50" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="12">
+        <v>1</v>
+      </c>
+      <c r="C50" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="20">
+      <c r="A51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="12">
+        <v>1</v>
+      </c>
+      <c r="C51" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="20">
+      <c r="A52" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="12">
+        <v>0</v>
+      </c>
+      <c r="C52" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="20">
+      <c r="A53" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="12">
+        <v>0</v>
+      </c>
+      <c r="C53" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="20">
+      <c r="A54" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="12">
+        <v>0</v>
+      </c>
+      <c r="C54" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="20">
+      <c r="A55" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="12">
+        <v>0</v>
+      </c>
+      <c r="C55" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="20">
+      <c r="A56" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="12">
+        <v>0</v>
+      </c>
+      <c r="C56" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="20">
+      <c r="A57" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="12">
+        <v>1</v>
+      </c>
+      <c r="C57" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="20">
+      <c r="A58" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="12">
+        <v>1</v>
+      </c>
+      <c r="C58" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="20">
+      <c r="A59" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="12">
+        <v>1</v>
+      </c>
+      <c r="C59" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="20">
+      <c r="A60" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="12">
+        <v>0</v>
+      </c>
+      <c r="C60" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="20">
+      <c r="A61" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="12">
+        <v>0</v>
+      </c>
+      <c r="C61" s="20">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B35">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>$B$13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>$B$10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"1$B$27"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B43">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>$B$24</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>$B$13</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="com.zola.bmi.C1.ChangeMetricInputC1.html" xr:uid="{D62FAE1B-3887-8B42-B9AB-B6499B573B82}"/>
-    <hyperlink ref="A3" r:id="rId2" display="com.zola.bmi.C1.InputDataTestC1.html" xr:uid="{2E620B40-F242-4F43-8242-8D5591A680B4}"/>
-    <hyperlink ref="A4" r:id="rId3" display="com.zola.bmi.C1.MixedMetricsC1.html" xr:uid="{E149422E-5BFF-7B47-BE3C-5D17139AADA9}"/>
-    <hyperlink ref="A5" r:id="rId4" display="com.zola.bmi.C1.ScoreAssertionC1.html" xr:uid="{38543DCF-0FD0-D741-B5CC-7F2A21AD1665}"/>
-    <hyperlink ref="A6" r:id="rId5" display="com.zola.bmi.C1.ScoreAssertionTextC1.html" xr:uid="{F3690017-BFDF-AF4B-83EF-106F2DBEBEBE}"/>
-    <hyperlink ref="A7" r:id="rId6" display="com.zola.bmi.C1.UIExistsTestC1.html" xr:uid="{497A4139-338E-AA41-8AE3-9A00CAC78F65}"/>
-    <hyperlink ref="A8" r:id="rId7" display="com.zola.bmi.C1.UITextAssertC1.html" xr:uid="{DDDA4CDF-E61B-5240-ADCE-D52776B97DC4}"/>
-    <hyperlink ref="A9" r:id="rId8" display="com.zola.bmi.C2.ChangeMetricsInputC2.html" xr:uid="{0AE6855E-627E-E14C-888C-03C6466842CF}"/>
-    <hyperlink ref="A10" r:id="rId9" display="com.zola.bmi.C2.InputDataC2.html" xr:uid="{9D08F0F0-FE28-0E4F-8B33-5F8DF009018D}"/>
-    <hyperlink ref="A11" r:id="rId10" display="com.zola.bmi.C2.MixedMetricsC2.html" xr:uid="{D2F90023-BC13-424E-BB09-E55A2FD65B1C}"/>
-    <hyperlink ref="A12" r:id="rId11" display="com.zola.bmi.C2.ScoreAssertTextC2.html" xr:uid="{B6292A38-C7DA-9442-B0EA-77CE23787E15}"/>
-    <hyperlink ref="A13" r:id="rId12" display="com.zola.bmi.C2.UIAssertC2.html" xr:uid="{E1A6DA67-E525-9147-B678-47CE8B50C300}"/>
-    <hyperlink ref="A14" r:id="rId13" display="com.zola.bmi.C2.UIExistsC2.html" xr:uid="{503F5B97-6571-5748-B7E8-C064925C28F9}"/>
-    <hyperlink ref="A15" r:id="rId14" display="com.zola.bmi.C2.UITextAssertC2.html" xr:uid="{02FF0D87-6DB5-DE46-8A7E-5D8F4BE71B15}"/>
-    <hyperlink ref="A16" r:id="rId15" display="com.zola.bmi.C3.ChangeMetricsInputC3.html" xr:uid="{4172458C-C1B8-CC49-A8B3-B4D29256C3DB}"/>
-    <hyperlink ref="A17" r:id="rId16" display="com.zola.bmi.C3.InputDataC3.html" xr:uid="{F5BFA54B-834F-8443-8511-4A939D33C20B}"/>
-    <hyperlink ref="A18" r:id="rId17" display="com.zola.bmi.C3.MixedMetricsC3.html" xr:uid="{769A917E-5290-BF42-A1C0-FEC7C4A196D7}"/>
-    <hyperlink ref="A19" r:id="rId18" display="com.zola.bmi.C3.ScoreAssertC3.html" xr:uid="{945B21B4-6DDD-7F4E-A9D2-8DC672BA7A20}"/>
-    <hyperlink ref="A20" r:id="rId19" display="com.zola.bmi.C3.UIAssertC3.html" xr:uid="{B7B5A3B4-2B45-0F41-866A-D3ACA90851B9}"/>
-    <hyperlink ref="A21" r:id="rId20" display="com.zola.bmi.C3.UIExistsC3.html" xr:uid="{680D0AC0-3309-A445-9B03-96AF1D940B8E}"/>
-    <hyperlink ref="A22" r:id="rId21" display="com.zola.bmi.C3.UITextAssertC3.html" xr:uid="{FFEDD31A-5089-1D4C-BFCA-3A9570F2CDB0}"/>
-    <hyperlink ref="A23" r:id="rId22" display="com.zola.bmi.C4.ChangeMetricInputC4.html" xr:uid="{CAF44982-49A9-B540-91E1-37B34714D97D}"/>
-    <hyperlink ref="A24" r:id="rId23" display="com.zola.bmi.C4.InputDataTestC4.html" xr:uid="{7282AF19-83B0-824B-AF33-1B7F7C01E884}"/>
-    <hyperlink ref="A25" r:id="rId24" display="com.zola.bmi.C4.MixedMetricsC4.html" xr:uid="{FC7F0589-7366-9A43-9A2A-ECCE72973CDC}"/>
-    <hyperlink ref="A26" r:id="rId25" display="com.zola.bmi.C4.ScoreAssertionC4.html" xr:uid="{69B1A6F0-2284-CF48-87E3-ED53EB8BE422}"/>
-    <hyperlink ref="A27" r:id="rId26" display="com.zola.bmi.C4.ScoreAssertionTextC4.html" xr:uid="{8E18262B-1CEF-2B42-A9CB-04D9B39C42BA}"/>
-    <hyperlink ref="A28" r:id="rId27" display="com.zola.bmi.C4.UIExistsTestC4.html" xr:uid="{69E71274-3835-6D48-ABDA-BB84E88D6FD0}"/>
-    <hyperlink ref="A29" r:id="rId28" display="com.zola.bmi.C4.UITextAssertC4.html" xr:uid="{0432510D-6E55-2541-8983-29AC8DD1531F}"/>
-    <hyperlink ref="A30" r:id="rId29" display="com.zola.bmi.C5.ChangeMetricsInputC5.html" xr:uid="{F675A672-602B-3442-854E-71DE6E6D1763}"/>
-    <hyperlink ref="A31" r:id="rId30" display="com.zola.bmi.C5.InputDataC5.html" xr:uid="{30536E7D-FEFE-EB4C-840C-BA54B933CB0F}"/>
-    <hyperlink ref="A32" r:id="rId31" display="com.zola.bmi.C5.MixedMetricsC5.html" xr:uid="{CD9886DD-56FC-9640-BA17-84555FFB192E}"/>
-    <hyperlink ref="A33" r:id="rId32" display="com.zola.bmi.C5.ScoreAssertC5.html" xr:uid="{50A2560F-41CA-DF4D-868B-A0D8BEC647D5}"/>
-    <hyperlink ref="A34" r:id="rId33" display="com.zola.bmi.C5.UIAssertC5.html" xr:uid="{0BCDE4A5-A7E7-B141-9807-9F454C8A1ADF}"/>
-    <hyperlink ref="A35" r:id="rId34" display="com.zola.bmi.C5.UIExistC5.html" xr:uid="{69EB4A8B-9E85-F34B-8D57-1146FAB8BA15}"/>
-    <hyperlink ref="A36" r:id="rId35" display="com.zola.bmi.C5.UITextAssertC5.html" xr:uid="{FDC723A4-F61E-024D-9B02-C7A51F9C7EEE}"/>
-    <hyperlink ref="A37" r:id="rId36" display="com.zola.bmi.C6.ChangeMetricsInputC6.html" xr:uid="{29C12B76-BDB6-474B-911C-6818AFB188CA}"/>
-    <hyperlink ref="A38" r:id="rId37" display="com.zola.bmi.C6.InputDataC6.html" xr:uid="{1043A3FC-DC14-8A4D-B21E-E5467E4631CC}"/>
-    <hyperlink ref="A39" r:id="rId38" display="com.zola.bmi.C6.MixedMetricsC6.html" xr:uid="{EC78601D-771F-004D-A157-A319DBDB4CE0}"/>
-    <hyperlink ref="A40" r:id="rId39" display="com.zola.bmi.C6.ScoreAssertTextC6.html" xr:uid="{EBF7FCF0-40B7-B049-AE9E-2D683278A557}"/>
-    <hyperlink ref="A41" r:id="rId40" display="com.zola.bmi.C6.UIAssertC6.html" xr:uid="{BD4799AB-1DE8-EF48-B492-62F4CC5C2016}"/>
-    <hyperlink ref="A42" r:id="rId41" display="com.zola.bmi.C6.UIExistsC6.html" xr:uid="{07FA994C-5BDC-D341-B5AC-2F32900E8895}"/>
-    <hyperlink ref="A43" r:id="rId42" display="com.zola.bmi.C6.UITextAssertC6.html" xr:uid="{FEBAEB81-16A7-4441-BA04-6B684A7C7443}"/>
+    <hyperlink ref="A2" r:id="rId1" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C1.ChangeMetricInputC1.html" xr:uid="{9D1C72C9-B7ED-CD4A-8300-BBFCE1038D75}"/>
+    <hyperlink ref="A3" r:id="rId2" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C1.ChangeScoreC1.html" xr:uid="{6E3CBE12-A3EC-0249-99BC-2D4A3194F9D9}"/>
+    <hyperlink ref="A4" r:id="rId3" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C1.InputDataTestC1.html" xr:uid="{EDF6C1D4-FE2E-964C-B3C6-A4441A214061}"/>
+    <hyperlink ref="A5" r:id="rId4" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C1.MixedMetricsC1.html" xr:uid="{B3719307-66CF-5B4A-8258-2AE163A9CCD0}"/>
+    <hyperlink ref="A6" r:id="rId5" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C1.MixedScoreC1.html" xr:uid="{46DAE36A-A52F-A44C-8277-11F2CAF9CEEA}"/>
+    <hyperlink ref="A7" r:id="rId6" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C1.ScoreAssertionC1.html" xr:uid="{0F420E91-A58E-8941-8995-73EE9966E9EE}"/>
+    <hyperlink ref="A8" r:id="rId7" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C1.ScoreAssertionTextC1.html" xr:uid="{D145AF92-EFA0-594F-984A-C8E52DA3E248}"/>
+    <hyperlink ref="A9" r:id="rId8" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C1.ScoreCalcC1.html" xr:uid="{0CDA786C-7E9E-4446-9BCC-07472877AA90}"/>
+    <hyperlink ref="A10" r:id="rId9" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C1.UIExistsTestC1.html" xr:uid="{7A2465B2-730F-EF4F-AD1D-BF96E84740A8}"/>
+    <hyperlink ref="A11" r:id="rId10" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C1.UITextAssertC1.html" xr:uid="{B55FCF63-3561-844C-92FC-41CF266F5ABF}"/>
+    <hyperlink ref="A12" r:id="rId11" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C2.ChangeMetricsInputC2.html" xr:uid="{F3412D21-643A-1E4B-90A1-6DD1A3B5B10A}"/>
+    <hyperlink ref="A13" r:id="rId12" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C2.ChangeScoreC2.html" xr:uid="{64439FCA-8B8A-694C-BA87-D746F55F047B}"/>
+    <hyperlink ref="A14" r:id="rId13" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C2.InputDataC2.html" xr:uid="{8935D9B4-DBB7-714C-AC1B-D70C46E23A57}"/>
+    <hyperlink ref="A15" r:id="rId14" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C2.MixedMetricsC2.html" xr:uid="{400E76C4-E018-6040-8D02-5EB80C2B4689}"/>
+    <hyperlink ref="A16" r:id="rId15" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C2.MixedScoreC2.html" xr:uid="{18A6485E-F9B7-A740-BC8B-4FC8D972B4BF}"/>
+    <hyperlink ref="A17" r:id="rId16" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C2.ScoreAssertTextC2.html" xr:uid="{E92DEBF1-ED05-494B-8C83-5C44405C224D}"/>
+    <hyperlink ref="A18" r:id="rId17" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C2.ScoreCalcC2.html" xr:uid="{0E6237F4-6637-F949-B294-3FF6A515C068}"/>
+    <hyperlink ref="A19" r:id="rId18" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C2.UIAssertC2.html" xr:uid="{870E10C3-A840-114A-9C45-3EB820290D54}"/>
+    <hyperlink ref="A20" r:id="rId19" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C2.UIExistsC2.html" xr:uid="{CBA73CE0-8306-AE4E-9781-E1E09B2D9DF1}"/>
+    <hyperlink ref="A21" r:id="rId20" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C2.UITextAssertC2.html" xr:uid="{37756F42-C6FF-AF41-B519-3E7C8102C086}"/>
+    <hyperlink ref="A22" r:id="rId21" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C3.ChangeMetricsInputC3.html" xr:uid="{E9E3FABC-5097-E240-BE83-737F71FBE563}"/>
+    <hyperlink ref="A23" r:id="rId22" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C3.ChangeScoreC3.html" xr:uid="{630FDE82-1842-944A-86AC-3225C4FAC90F}"/>
+    <hyperlink ref="A24" r:id="rId23" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C3.InputDataC3.html" xr:uid="{9B6DD515-1A7F-D04D-81B7-BF7B4E282BDF}"/>
+    <hyperlink ref="A25" r:id="rId24" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C3.MixedMetricsC3.html" xr:uid="{9B70CB6A-282A-DA48-AD81-4B7CA064387E}"/>
+    <hyperlink ref="A26" r:id="rId25" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C3.MixedScoreC3.html" xr:uid="{26BA2FEF-DFA8-794F-A1D2-70C53755C530}"/>
+    <hyperlink ref="A27" r:id="rId26" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C3.ScoreAssertC3.html" xr:uid="{9ACCBC20-6918-9842-A8AA-6AC21B8D7F12}"/>
+    <hyperlink ref="A28" r:id="rId27" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C3.ScoreCalcC3.html" xr:uid="{005F296F-3365-C34D-8B1C-FACB3BE32E5F}"/>
+    <hyperlink ref="A29" r:id="rId28" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C3.UIAssertC3.html" xr:uid="{050607BE-F3AC-5D4E-B5FB-33145D289DDA}"/>
+    <hyperlink ref="A30" r:id="rId29" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C3.UIExistsC3.html" xr:uid="{02C9A9FF-656B-FA47-BA3D-98D5826837D5}"/>
+    <hyperlink ref="A31" r:id="rId30" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C3.UITextAssertC3.html" xr:uid="{5D9A1921-F8C9-CE4A-948C-3B901C912384}"/>
+    <hyperlink ref="A32" r:id="rId31" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C4.ChangeMetricInputC4.html" xr:uid="{6ED03C35-1B55-2D40-99ED-7C96E38E91F5}"/>
+    <hyperlink ref="A33" r:id="rId32" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C4.ChangeScoreC4.html" xr:uid="{065F7DA0-CEF8-5F49-9C9F-BCE2C2599BD0}"/>
+    <hyperlink ref="A34" r:id="rId33" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C4.InputDataTestC4.html" xr:uid="{340A0EE4-5642-874C-996F-EA639E3A5D13}"/>
+    <hyperlink ref="A35" r:id="rId34" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C4.MixedMetricsC4.html" xr:uid="{C9AC6500-EC8B-2949-94B6-7ECB6E174D10}"/>
+    <hyperlink ref="A36" r:id="rId35" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C4.MixedScoreC4.html" xr:uid="{5A849A98-8584-BC44-BA03-437A61E2486D}"/>
+    <hyperlink ref="A37" r:id="rId36" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C4.ScoreAssertionC4.html" xr:uid="{6A412B29-6CEA-064C-938A-6A23A433B890}"/>
+    <hyperlink ref="A38" r:id="rId37" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C4.ScoreAssertionTextC4.html" xr:uid="{77B70A8D-2E15-724E-9E73-0E8D506AD104}"/>
+    <hyperlink ref="A39" r:id="rId38" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C4.ScoreCalcC4.html" xr:uid="{AA4BBE94-5FB1-5F47-9F48-364650DD0B30}"/>
+    <hyperlink ref="A40" r:id="rId39" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C4.UIExistsTestC4.html" xr:uid="{A5C79640-F78A-1C46-A72A-2231D3EF7261}"/>
+    <hyperlink ref="A41" r:id="rId40" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C4.UITextAssertC4.html" xr:uid="{67B7F81B-3065-3047-9263-6BA2EBA7AD27}"/>
+    <hyperlink ref="A42" r:id="rId41" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C5.ChangeMetricsInputC5.html" xr:uid="{5723928B-579B-0B48-BC73-CF9B477BD166}"/>
+    <hyperlink ref="A43" r:id="rId42" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C5.ChangeScoreC5.html" xr:uid="{3C419375-FA13-6941-83BE-7D5D9CBEBBE9}"/>
+    <hyperlink ref="A44" r:id="rId43" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C5.InputDataC5.html" xr:uid="{1F579DFC-87AE-D94A-AA70-D0053E7E09A9}"/>
+    <hyperlink ref="A45" r:id="rId44" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C5.MixedMetricsC5.html" xr:uid="{251B6D67-6F86-974D-8AB0-EA00EA8D808F}"/>
+    <hyperlink ref="A46" r:id="rId45" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C5.MixedScoreC5.html" xr:uid="{9BB65961-DF7E-7C46-8775-2DA5CA1C9581}"/>
+    <hyperlink ref="A47" r:id="rId46" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C5.ScoreAssertC5.html" xr:uid="{6321964B-B660-E047-AA42-305762D25EA6}"/>
+    <hyperlink ref="A48" r:id="rId47" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C5.ScoreCalcC5.html" xr:uid="{9F8E6C6E-FF1E-6645-80C4-920135550228}"/>
+    <hyperlink ref="A49" r:id="rId48" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C5.UIAssertC5.html" xr:uid="{B81FC133-2FB5-F146-BB4B-37A8E8D746AA}"/>
+    <hyperlink ref="A50" r:id="rId49" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C5.UIExistC5.html" xr:uid="{E8AE4FE9-AB4E-E046-8AD6-D7D20E8B0F35}"/>
+    <hyperlink ref="A51" r:id="rId50" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C5.UITextAssertC5.html" xr:uid="{67900D7E-56B8-CE46-AC20-DA23D7C8CB57}"/>
+    <hyperlink ref="A52" r:id="rId51" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C6.ChangeMetricsInputC6.html" xr:uid="{70D30B76-2946-1648-9EF2-2F4F1086FABD}"/>
+    <hyperlink ref="A53" r:id="rId52" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C6.ChangeScoreC6.html" xr:uid="{07806AEB-166F-904E-AF20-9AE55F645F4E}"/>
+    <hyperlink ref="A54" r:id="rId53" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C6.InputDataC6.html" xr:uid="{6343669A-D5C0-F446-A38A-12732779708B}"/>
+    <hyperlink ref="A55" r:id="rId54" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C6.MixedMetricsC6.html" xr:uid="{8567AE62-7D9E-554F-A7D5-ADE1D033C127}"/>
+    <hyperlink ref="A56" r:id="rId55" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C6.MixedScoreC6.html" xr:uid="{6BB6953D-BBA3-574C-A790-AD01BCE623A3}"/>
+    <hyperlink ref="A57" r:id="rId56" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C6.ScoreAssertTextC6.html" xr:uid="{F56BE718-8D80-6943-A0A1-E06FA01044AD}"/>
+    <hyperlink ref="A58" r:id="rId57" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C6.ScoreCalcC6.html" xr:uid="{8B952C35-1022-0443-94E1-96B893959356}"/>
+    <hyperlink ref="A59" r:id="rId58" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C6.UIAssertC6.html" xr:uid="{1D1D9801-B05F-AF4E-9CCD-ACBCFEA2FBE0}"/>
+    <hyperlink ref="A60" r:id="rId59" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C6.UIExistsC6.html" xr:uid="{51BC0721-5A7B-C546-B4CA-CEC275FC9209}"/>
+    <hyperlink ref="A61" r:id="rId60" display="../../standard_tests/BMI-Calculator/com.zola.bmi.C6.UITextAssertC6.html" xr:uid="{C40792F8-B277-5947-8141-293AF7D813E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10668,7 +10478,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
